--- a/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654907643507796</v>
+        <v>0.9980342968504132</v>
       </c>
       <c r="D2">
-        <v>0.9909410204974283</v>
+        <v>1.020227969265646</v>
       </c>
       <c r="E2">
-        <v>0.9741685343264226</v>
+        <v>1.002342692684421</v>
       </c>
       <c r="F2">
-        <v>0.9404165842304503</v>
+        <v>1.01577072413432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031922783209725</v>
+        <v>1.046782275101134</v>
       </c>
       <c r="J2">
-        <v>0.988755019043051</v>
+        <v>1.020273961143928</v>
       </c>
       <c r="K2">
-        <v>1.002528020873888</v>
+        <v>1.031412509617071</v>
       </c>
       <c r="L2">
-        <v>0.9859998716858105</v>
+        <v>1.013769486278824</v>
       </c>
       <c r="M2">
-        <v>0.952773535414713</v>
+        <v>1.0270146344435</v>
       </c>
       <c r="N2">
-        <v>0.9901591645818777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021722867195811</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029952583034312</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033281564413829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9769377782726559</v>
+        <v>1.004825848129953</v>
       </c>
       <c r="D3">
-        <v>0.9997854397836442</v>
+        <v>1.024987077111015</v>
       </c>
       <c r="E3">
-        <v>0.9840772148632381</v>
+        <v>1.008245117487966</v>
       </c>
       <c r="F3">
-        <v>0.9551008209614458</v>
+        <v>1.020117966595953</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035901098305474</v>
+        <v>1.04870362624981</v>
       </c>
       <c r="J3">
-        <v>0.998077515803948</v>
+        <v>1.025185814633748</v>
       </c>
       <c r="K3">
-        <v>1.010421066684091</v>
+        <v>1.035309922471375</v>
       </c>
       <c r="L3">
-        <v>0.9949179680096973</v>
+        <v>1.018773576396162</v>
       </c>
       <c r="M3">
-        <v>0.9663423658622405</v>
+        <v>1.030499746114026</v>
       </c>
       <c r="N3">
-        <v>0.9994949003574809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.026641696080985</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032710850935052</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036034737809099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9839783851463014</v>
+        <v>1.009085692487845</v>
       </c>
       <c r="D4">
-        <v>1.005228524489157</v>
+        <v>1.02797409762945</v>
       </c>
       <c r="E4">
-        <v>0.9901733654860836</v>
+        <v>1.011947723393485</v>
       </c>
       <c r="F4">
-        <v>0.9641161828189446</v>
+        <v>1.0228611408862</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03832812846267</v>
+        <v>1.049892112496765</v>
       </c>
       <c r="J4">
-        <v>1.003800998517013</v>
+        <v>1.028259806579122</v>
       </c>
       <c r="K4">
-        <v>1.015264252778433</v>
+        <v>1.037746227913403</v>
       </c>
       <c r="L4">
-        <v>1.000391854265676</v>
+        <v>1.021904057246478</v>
       </c>
       <c r="M4">
-        <v>0.9746678970722132</v>
+        <v>1.032691264740112</v>
       </c>
       <c r="N4">
-        <v>1.005226511072491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029720053447513</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034445307860266</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037758335329352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9868587388353943</v>
+        <v>1.010860465115729</v>
       </c>
       <c r="D5">
-        <v>1.007455842516652</v>
+        <v>1.029220952309471</v>
       </c>
       <c r="E5">
-        <v>0.992667586598993</v>
+        <v>1.013496114626757</v>
       </c>
       <c r="F5">
-        <v>0.9678015032635556</v>
+        <v>1.024004762544205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039316173292202</v>
+        <v>1.050385349758661</v>
       </c>
       <c r="J5">
-        <v>1.006139972752384</v>
+        <v>1.029542504734472</v>
       </c>
       <c r="K5">
-        <v>1.017242743187997</v>
+        <v>1.038762958080233</v>
       </c>
       <c r="L5">
-        <v>1.002628475881025</v>
+        <v>1.023213751498289</v>
       </c>
       <c r="M5">
-        <v>0.9780699145954481</v>
+        <v>1.033604292718157</v>
       </c>
       <c r="N5">
-        <v>1.00756880691956</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.031004573181371</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035167914055624</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038484441739408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9873379146745873</v>
+        <v>1.011174354167958</v>
       </c>
       <c r="D6">
-        <v>1.00782640305464</v>
+        <v>1.029443916600213</v>
       </c>
       <c r="E6">
-        <v>0.9930825358488197</v>
+        <v>1.013776903854914</v>
       </c>
       <c r="F6">
-        <v>0.9684144476851116</v>
+        <v>1.024203495954631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039480255224132</v>
+        <v>1.050474980873582</v>
       </c>
       <c r="J6">
-        <v>1.006528934323711</v>
+        <v>1.029773736564012</v>
       </c>
       <c r="K6">
-        <v>1.017571711774972</v>
+        <v>1.038947209148999</v>
       </c>
       <c r="L6">
-        <v>1.003000395017314</v>
+        <v>1.023454325624266</v>
       </c>
       <c r="M6">
-        <v>0.9786356599486415</v>
+        <v>1.03376430367949</v>
       </c>
       <c r="N6">
-        <v>1.007958320860933</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.031236133386631</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035294552937738</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038623484279727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9840171751390896</v>
+        <v>1.009157878763059</v>
       </c>
       <c r="D7">
-        <v>1.005258518239085</v>
+        <v>1.028031265494133</v>
       </c>
       <c r="E7">
-        <v>0.9902069545987653</v>
+        <v>1.012029831323299</v>
       </c>
       <c r="F7">
-        <v>0.9641658237624466</v>
+        <v>1.02289738356868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038341454022681</v>
+        <v>1.049919311533003</v>
       </c>
       <c r="J7">
-        <v>1.003832507828015</v>
+        <v>1.028324184982368</v>
       </c>
       <c r="K7">
-        <v>1.015290908914406</v>
+        <v>1.03779985939827</v>
       </c>
       <c r="L7">
-        <v>1.000421986182324</v>
+        <v>1.021982249600057</v>
       </c>
       <c r="M7">
-        <v>0.9747137272927396</v>
+        <v>1.032724182413771</v>
       </c>
       <c r="N7">
-        <v>1.005258065130328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029784523275475</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034471360212696</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037816422571041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9694405642387351</v>
+        <v>1.000422998057984</v>
       </c>
       <c r="D8">
-        <v>0.9939919313524732</v>
+        <v>1.021909238034081</v>
       </c>
       <c r="E8">
-        <v>0.9775870564857644</v>
+        <v>1.004444794149336</v>
       </c>
       <c r="F8">
-        <v>0.9454875736917555</v>
+        <v>1.017282794957548</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033299692901626</v>
+        <v>1.047470227810799</v>
       </c>
       <c r="J8">
-        <v>0.991973959178113</v>
+        <v>1.02201893715299</v>
       </c>
       <c r="K8">
-        <v>1.005253905520323</v>
+        <v>1.032800392690885</v>
       </c>
       <c r="L8">
-        <v>0.9890794349737353</v>
+        <v>1.015564892615663</v>
       </c>
       <c r="M8">
-        <v>0.9574603399455036</v>
+        <v>1.028233640150378</v>
       </c>
       <c r="N8">
-        <v>0.9933826759811494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.023470321270958</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030917358042473</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034285978964664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.940492124553819</v>
+        <v>0.9838299771539655</v>
       </c>
       <c r="D9">
-        <v>0.9716595572397524</v>
+        <v>1.010291247722007</v>
       </c>
       <c r="E9">
-        <v>0.95254881286894</v>
+        <v>0.9900072044196302</v>
       </c>
       <c r="F9">
-        <v>0.9081908437377848</v>
+        <v>1.006776813612212</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023123225375348</v>
+        <v>1.042674631510305</v>
       </c>
       <c r="J9">
-        <v>0.9683366344523503</v>
+        <v>1.009966952910881</v>
       </c>
       <c r="K9">
-        <v>0.9852298065107443</v>
+        <v>1.023219534411108</v>
       </c>
       <c r="L9">
-        <v>0.9664617163112729</v>
+        <v>1.003264515415472</v>
       </c>
       <c r="M9">
-        <v>0.9229725790590706</v>
+        <v>1.019760890331666</v>
       </c>
       <c r="N9">
-        <v>0.9697117835430369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011401221828844</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024211621336735</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027508309629069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9181586749767517</v>
+        <v>0.972318172295267</v>
       </c>
       <c r="D10">
-        <v>0.9544872958360311</v>
+        <v>1.002263909463433</v>
       </c>
       <c r="E10">
-        <v>0.9332670813866851</v>
+        <v>0.9801160008376619</v>
       </c>
       <c r="F10">
-        <v>0.8791478755765296</v>
+        <v>0.9997968719731504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.015167182094803</v>
+        <v>1.039296535362348</v>
       </c>
       <c r="J10">
-        <v>0.95004287338496</v>
+        <v>1.00167482111987</v>
       </c>
       <c r="K10">
-        <v>0.969729971789268</v>
+        <v>1.016592408280079</v>
       </c>
       <c r="L10">
-        <v>0.9489556601703431</v>
+        <v>0.9948537937777649</v>
       </c>
       <c r="M10">
-        <v>0.896105609743304</v>
+        <v>1.014169794928025</v>
       </c>
       <c r="N10">
-        <v>0.9513920432366075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.003097314259568</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019839155359093</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022839413356037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9074894808683175</v>
+        <v>0.9705277986284085</v>
       </c>
       <c r="D11">
-        <v>0.9463057842151998</v>
+        <v>1.001092198471612</v>
       </c>
       <c r="E11">
-        <v>0.9240699498330556</v>
+        <v>0.9795222450953965</v>
       </c>
       <c r="F11">
-        <v>0.8651640425241351</v>
+        <v>1.000389092270709</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011344050402006</v>
+        <v>1.038989145004961</v>
       </c>
       <c r="J11">
-        <v>0.941290357135826</v>
+        <v>1.001180217054233</v>
       </c>
       <c r="K11">
-        <v>0.9623166746240278</v>
+        <v>1.015993546880683</v>
       </c>
       <c r="L11">
-        <v>0.9405814321734409</v>
+        <v>0.9948409577526057</v>
       </c>
       <c r="M11">
-        <v>0.8831718569924791</v>
+        <v>1.015303674609895</v>
       </c>
       <c r="N11">
-        <v>0.942627097410472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002602007799426</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021181608748391</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022449386757721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033418974766093</v>
+        <v>0.971002910046967</v>
       </c>
       <c r="D12">
-        <v>0.943129551159236</v>
+        <v>1.001470170822472</v>
       </c>
       <c r="E12">
-        <v>0.9204974355105201</v>
+        <v>0.980619706701918</v>
       </c>
       <c r="F12">
-        <v>0.8597057074019154</v>
+        <v>1.001846826566303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009854783513706</v>
+        <v>1.039284038361803</v>
       </c>
       <c r="J12">
-        <v>0.9378859417235857</v>
+        <v>1.002087278051733</v>
       </c>
       <c r="K12">
-        <v>0.9594338999509782</v>
+        <v>1.016569258777887</v>
       </c>
       <c r="L12">
-        <v>0.9373245981671021</v>
+        <v>0.9961278658058315</v>
       </c>
       <c r="M12">
-        <v>0.8781244191933896</v>
+        <v>1.016938729620793</v>
       </c>
       <c r="N12">
-        <v>0.9392178473378542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003510356927584</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022806809282695</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022856446569387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9042406155294944</v>
+        <v>0.973295008747144</v>
       </c>
       <c r="D13">
-        <v>0.9438175818657273</v>
+        <v>1.003102440293322</v>
       </c>
       <c r="E13">
-        <v>0.9212714052987748</v>
+        <v>0.9831452414563635</v>
       </c>
       <c r="F13">
-        <v>0.8608895603436758</v>
+        <v>1.004103644712397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010177616041493</v>
+        <v>1.040086511864439</v>
       </c>
       <c r="J13">
-        <v>0.9386237126065365</v>
+        <v>1.004177273411232</v>
       </c>
       <c r="K13">
-        <v>0.960058586238504</v>
+        <v>1.018126607812662</v>
       </c>
       <c r="L13">
-        <v>0.9380303622337838</v>
+        <v>0.9985574896464293</v>
       </c>
       <c r="M13">
-        <v>0.8792190938124487</v>
+        <v>1.019108874184586</v>
       </c>
       <c r="N13">
-        <v>0.9399566659400824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005603320320219</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02480313165926</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023955045109004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9071506508423203</v>
+        <v>0.9756700848390266</v>
       </c>
       <c r="D14">
-        <v>0.9460462146628876</v>
+        <v>1.00477784803516</v>
       </c>
       <c r="E14">
-        <v>0.9237780379841627</v>
+        <v>0.9855059882995306</v>
       </c>
       <c r="F14">
-        <v>0.8647186199152729</v>
+        <v>1.005998263165293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011222446363595</v>
+        <v>1.040860224804682</v>
       </c>
       <c r="J14">
-        <v>0.9410122775041552</v>
+        <v>1.006128409904641</v>
       </c>
       <c r="K14">
-        <v>0.9620811865338561</v>
+        <v>1.019627071527976</v>
       </c>
       <c r="L14">
-        <v>0.9403153968150453</v>
+        <v>1.00072385186049</v>
       </c>
       <c r="M14">
-        <v>0.8827599401598185</v>
+        <v>1.020824762322152</v>
       </c>
       <c r="N14">
-        <v>0.942348622873828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007557227651247</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026334701447065</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025017397503929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.908917915534313</v>
+        <v>0.9766890399037614</v>
       </c>
       <c r="D15">
-        <v>0.9474002519969449</v>
+        <v>1.005493490962952</v>
       </c>
       <c r="E15">
-        <v>0.9253007051184389</v>
+        <v>0.9864437308592338</v>
       </c>
       <c r="F15">
-        <v>0.8670409167935085</v>
+        <v>1.006697998603396</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.011856586500698</v>
+        <v>1.041176804988454</v>
       </c>
       <c r="J15">
-        <v>0.9424626039591504</v>
+        <v>1.006907618658961</v>
       </c>
       <c r="K15">
-        <v>0.9633094082840491</v>
+        <v>1.020241190380482</v>
       </c>
       <c r="L15">
-        <v>0.9417029255475327</v>
+        <v>1.001552530203547</v>
       </c>
       <c r="M15">
-        <v>0.8849075935695114</v>
+        <v>1.02142346443611</v>
       </c>
       <c r="N15">
-        <v>0.9438010089587442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008337542971374</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02684579976786</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.025457561006672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9188430344247817</v>
+        <v>0.9810237937640245</v>
       </c>
       <c r="D16">
-        <v>0.9550126057822886</v>
+        <v>1.008510847687537</v>
       </c>
       <c r="E16">
-        <v>0.9338573557981807</v>
+        <v>0.9900205441728958</v>
       </c>
       <c r="F16">
-        <v>0.880042211794818</v>
+        <v>1.009205213021962</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.015411983493058</v>
+        <v>1.042436497964476</v>
       </c>
       <c r="J16">
-        <v>0.9506040287276597</v>
+        <v>1.009931801319519</v>
       </c>
       <c r="K16">
-        <v>0.9702053423295505</v>
+        <v>1.022691886422416</v>
       </c>
       <c r="L16">
-        <v>0.9494926075039759</v>
+        <v>1.004535133840102</v>
       </c>
       <c r="M16">
-        <v>0.8969328842985036</v>
+        <v>1.023374034552505</v>
       </c>
       <c r="N16">
-        <v>0.9519539954842591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01136602031819</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028348437766934</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027193523185896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9247805731572867</v>
+        <v>0.9831433025220521</v>
       </c>
       <c r="D17">
-        <v>0.9595727225128843</v>
+        <v>1.009975796202421</v>
       </c>
       <c r="E17">
-        <v>0.9389802187944691</v>
+        <v>0.9915735396652389</v>
       </c>
       <c r="F17">
-        <v>0.8877891094749681</v>
+        <v>1.01015738091686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.01753347631458</v>
+        <v>1.043007774849729</v>
       </c>
       <c r="J17">
-        <v>0.9554712080270749</v>
+        <v>1.011265033981812</v>
       </c>
       <c r="K17">
-        <v>0.9743287701575898</v>
+        <v>1.023811145572111</v>
       </c>
       <c r="L17">
-        <v>0.9541499909957362</v>
+        <v>1.00573094619524</v>
       </c>
       <c r="M17">
-        <v>0.9040991897834632</v>
+        <v>1.023989627906372</v>
       </c>
       <c r="N17">
-        <v>0.9568280867365528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012701146323787</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028704746626985</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027987507225219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9281503159824679</v>
+        <v>0.9834017480067445</v>
       </c>
       <c r="D18">
-        <v>0.9621626680599871</v>
+        <v>1.01012523344355</v>
       </c>
       <c r="E18">
-        <v>0.9418888452653432</v>
+        <v>0.9913466192668645</v>
       </c>
       <c r="F18">
-        <v>0.892176231765945</v>
+        <v>1.009640145389163</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018735439664685</v>
+        <v>1.042983199082719</v>
       </c>
       <c r="J18">
-        <v>0.9582322887593221</v>
+        <v>1.011106822759706</v>
       </c>
       <c r="K18">
-        <v>0.9766681306313457</v>
+        <v>1.023771451365815</v>
       </c>
       <c r="L18">
-        <v>0.9567921686929505</v>
+        <v>1.005316412022429</v>
       </c>
       <c r="M18">
-        <v>0.908157681892653</v>
+        <v>1.023294526548452</v>
       </c>
       <c r="N18">
-        <v>0.9595930885201399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012542710423599</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027914880964076</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027947675655586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292843122336234</v>
+        <v>0.981940469624128</v>
       </c>
       <c r="D19">
-        <v>0.963034548953257</v>
+        <v>1.009065968647237</v>
       </c>
       <c r="E19">
-        <v>0.9428678587838417</v>
+        <v>0.9894995744642795</v>
       </c>
       <c r="F19">
-        <v>0.8936511228011335</v>
+        <v>1.007676678029154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019139572302095</v>
+        <v>1.042412717118881</v>
       </c>
       <c r="J19">
-        <v>0.9591612511644656</v>
+        <v>1.009564812533685</v>
       </c>
       <c r="K19">
-        <v>0.9774552308573774</v>
+        <v>1.022666311329779</v>
       </c>
       <c r="L19">
-        <v>0.9576811399335114</v>
+        <v>1.003436522840021</v>
       </c>
       <c r="M19">
-        <v>0.9095221045214263</v>
+        <v>1.021300365010518</v>
       </c>
       <c r="N19">
-        <v>0.9605233701584525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010998510366185</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.02600796948476</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027172763870868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9241534169001794</v>
+        <v>0.9755030342653205</v>
       </c>
       <c r="D20">
-        <v>0.95909084939198</v>
+        <v>1.004498249179649</v>
       </c>
       <c r="E20">
-        <v>0.9384389796933075</v>
+        <v>0.9829224150741084</v>
       </c>
       <c r="F20">
-        <v>0.8869718634610756</v>
+        <v>1.001703062901288</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017309604821551</v>
+        <v>1.040254977949104</v>
       </c>
       <c r="J20">
-        <v>0.9549572340820778</v>
+        <v>1.004012063854953</v>
       </c>
       <c r="K20">
-        <v>0.9738933133643068</v>
+        <v>1.018462460782617</v>
       </c>
       <c r="L20">
-        <v>0.953658158563055</v>
+        <v>0.9972723505243904</v>
       </c>
       <c r="M20">
-        <v>0.9033431715333112</v>
+        <v>1.015716031959096</v>
       </c>
       <c r="N20">
-        <v>0.9563133828896002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005437876147421</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021052077128908</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024204425267942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9062991541682204</v>
+        <v>0.9660322925268653</v>
       </c>
       <c r="D21">
-        <v>0.9453939755357442</v>
+        <v>0.9978884357112578</v>
       </c>
       <c r="E21">
-        <v>0.9230444966112135</v>
+        <v>0.9746074984499109</v>
       </c>
       <c r="F21">
-        <v>0.8635988727120896</v>
+        <v>0.9956723945727689</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010916801914047</v>
+        <v>1.037400751528685</v>
       </c>
       <c r="J21">
-        <v>0.9403134189459244</v>
+        <v>0.9970221897044727</v>
       </c>
       <c r="K21">
-        <v>0.9614893804250675</v>
+        <v>1.012909923056339</v>
       </c>
       <c r="L21">
-        <v>0.9396468154104013</v>
+        <v>0.9900864551886294</v>
       </c>
       <c r="M21">
-        <v>0.8817244420164355</v>
+        <v>1.010736221228123</v>
       </c>
       <c r="N21">
-        <v>0.9416487718562843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9984380755738967</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017068996591379</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020281785252614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8939777226861774</v>
+        <v>0.9599724758478506</v>
       </c>
       <c r="D22">
-        <v>0.9359677829194788</v>
+        <v>0.9936660442728846</v>
       </c>
       <c r="E22">
-        <v>0.9124378522591718</v>
+        <v>0.9693143804275064</v>
       </c>
       <c r="F22">
-        <v>0.8473318493776982</v>
+        <v>0.9919599863038132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.006487131622149</v>
+        <v>1.03556542043094</v>
       </c>
       <c r="J22">
-        <v>0.9301960834189582</v>
+        <v>0.9925758973997013</v>
       </c>
       <c r="K22">
-        <v>0.9529242008111853</v>
+        <v>1.009364031069235</v>
       </c>
       <c r="L22">
-        <v>0.9299692692508517</v>
+        <v>0.9855192599423426</v>
       </c>
       <c r="M22">
-        <v>0.8666849789866481</v>
+        <v>1.00769241792275</v>
       </c>
       <c r="N22">
-        <v>0.9315170685523949</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9939854690240557</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.014659944167828</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017760831068086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9006286580959797</v>
+        <v>0.9631470756200529</v>
       </c>
       <c r="D23">
-        <v>0.9410530974987785</v>
+        <v>0.9958718579157801</v>
       </c>
       <c r="E23">
-        <v>0.9181612905648741</v>
+        <v>0.9720614375993994</v>
       </c>
       <c r="F23">
-        <v>0.8561277971687764</v>
+        <v>0.9939130675127756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008879730242805</v>
+        <v>1.036522593768621</v>
       </c>
       <c r="J23">
-        <v>0.9356583235431253</v>
+        <v>0.9948920919012862</v>
       </c>
       <c r="K23">
-        <v>0.9575478701215632</v>
+        <v>1.011210820940264</v>
       </c>
       <c r="L23">
-        <v>0.9351937090020653</v>
+        <v>0.9878812614800254</v>
       </c>
       <c r="M23">
-        <v>0.8748162460809537</v>
+        <v>1.009290447419173</v>
       </c>
       <c r="N23">
-        <v>0.9369870656840664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9963049527875041</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.015924723719002</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019056795469415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9244370883752818</v>
+        <v>0.9752437610463742</v>
       </c>
       <c r="D24">
-        <v>0.9593088013114064</v>
+        <v>1.00430233368467</v>
       </c>
       <c r="E24">
-        <v>0.9386837858235336</v>
+        <v>0.9825771743111151</v>
       </c>
       <c r="F24">
-        <v>0.887341544445249</v>
+        <v>1.001393753205033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.01741087143718</v>
+        <v>1.040147545907646</v>
       </c>
       <c r="J24">
-        <v>0.9551897153786412</v>
+        <v>1.003729251431279</v>
       </c>
       <c r="K24">
-        <v>0.9740902790924827</v>
+        <v>1.018254314441634</v>
       </c>
       <c r="L24">
-        <v>0.9538806244526835</v>
+        <v>0.9969173222465472</v>
       </c>
       <c r="M24">
-        <v>0.9036851556904983</v>
+        <v>1.015396437104479</v>
       </c>
       <c r="N24">
-        <v>0.9565461943362705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005154662097665</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020757359972507</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024029410392794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9484363546424576</v>
+        <v>0.9883551633266556</v>
       </c>
       <c r="D25">
-        <v>0.9777809965531653</v>
+        <v>1.013465881755529</v>
       </c>
       <c r="E25">
-        <v>0.959415700529137</v>
+        <v>0.9939805336729691</v>
       </c>
       <c r="F25">
-        <v>0.9184594125893478</v>
+        <v>1.009606546978452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025933814807561</v>
+        <v>1.044007937314003</v>
       </c>
       <c r="J25">
-        <v>0.9748330026477544</v>
+        <v>1.013280879880571</v>
       </c>
       <c r="K25">
-        <v>0.990734313280195</v>
+        <v>1.025858692800032</v>
       </c>
       <c r="L25">
-        <v>0.97267849830894</v>
+        <v>1.006673018389107</v>
       </c>
       <c r="M25">
-        <v>0.9324708030929545</v>
+        <v>1.022057541857141</v>
       </c>
       <c r="N25">
-        <v>0.9762173773264223</v>
+        <v>1.014719854954943</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026029306932358</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029403318442948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980342968504132</v>
+        <v>1.046061466433522</v>
       </c>
       <c r="D2">
-        <v>1.020227969265646</v>
+        <v>1.057722969589582</v>
       </c>
       <c r="E2">
-        <v>1.002342692684421</v>
+        <v>1.053901660888435</v>
       </c>
       <c r="F2">
-        <v>1.01577072413432</v>
+        <v>1.060613285308421</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046782275101134</v>
+        <v>1.069922123011815</v>
       </c>
       <c r="J2">
-        <v>1.020273961143928</v>
+        <v>1.066946657052161</v>
       </c>
       <c r="K2">
-        <v>1.031412509617071</v>
+        <v>1.068432704519461</v>
       </c>
       <c r="L2">
-        <v>1.013769486278824</v>
+        <v>1.064657862878634</v>
       </c>
       <c r="M2">
-        <v>1.0270146344435</v>
+        <v>1.071288150073603</v>
       </c>
       <c r="N2">
-        <v>1.021722867195811</v>
+        <v>1.068461843685667</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029952583034312</v>
+        <v>1.064991776295349</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033281564413829</v>
+        <v>1.059457688397644</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004825848129953</v>
+        <v>1.050593967277804</v>
       </c>
       <c r="D3">
-        <v>1.024987077111015</v>
+        <v>1.060913298474779</v>
       </c>
       <c r="E3">
-        <v>1.008245117487966</v>
+        <v>1.057540106700926</v>
       </c>
       <c r="F3">
-        <v>1.020117966595953</v>
+        <v>1.063964652739721</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04870362624981</v>
+        <v>1.071468060496279</v>
       </c>
       <c r="J3">
-        <v>1.025185814633748</v>
+        <v>1.06979436887197</v>
       </c>
       <c r="K3">
-        <v>1.035309922471375</v>
+        <v>1.070821880188319</v>
       </c>
       <c r="L3">
-        <v>1.018773576396162</v>
+        <v>1.067486110860993</v>
       </c>
       <c r="M3">
-        <v>1.030499746114026</v>
+        <v>1.073839633603171</v>
       </c>
       <c r="N3">
-        <v>1.026641696080985</v>
+        <v>1.071313599582898</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032710850935052</v>
+        <v>1.067011036185607</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036034737809099</v>
+        <v>1.06114436286152</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009085692487845</v>
+        <v>1.05347035419073</v>
       </c>
       <c r="D4">
-        <v>1.02797409762945</v>
+        <v>1.062941336507201</v>
       </c>
       <c r="E4">
-        <v>1.011947723393485</v>
+        <v>1.059853875995581</v>
       </c>
       <c r="F4">
-        <v>1.0228611408862</v>
+        <v>1.066097843785382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049892112496765</v>
+        <v>1.072439613864559</v>
       </c>
       <c r="J4">
-        <v>1.028259806579122</v>
+        <v>1.071598583422289</v>
       </c>
       <c r="K4">
-        <v>1.037746227913403</v>
+        <v>1.072335129444036</v>
       </c>
       <c r="L4">
-        <v>1.021904057246478</v>
+        <v>1.069279846349396</v>
       </c>
       <c r="M4">
-        <v>1.032691264740112</v>
+        <v>1.075458974760863</v>
       </c>
       <c r="N4">
-        <v>1.029720053447513</v>
+        <v>1.073120376324824</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034445307860266</v>
+        <v>1.068292590150913</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037758335329352</v>
+        <v>1.062215171820277</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010860465115729</v>
+        <v>1.054673287284014</v>
       </c>
       <c r="D5">
-        <v>1.029220952309471</v>
+        <v>1.063792647939045</v>
       </c>
       <c r="E5">
-        <v>1.013496114626757</v>
+        <v>1.060824312097037</v>
       </c>
       <c r="F5">
-        <v>1.024004762544205</v>
+        <v>1.066992476014452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050385349758661</v>
+        <v>1.072845733293243</v>
       </c>
       <c r="J5">
-        <v>1.029542504734472</v>
+        <v>1.072354748945831</v>
       </c>
       <c r="K5">
-        <v>1.038762958080233</v>
+        <v>1.072970771812753</v>
       </c>
       <c r="L5">
-        <v>1.023213751498289</v>
+        <v>1.070032544712287</v>
       </c>
       <c r="M5">
-        <v>1.033604292718157</v>
+        <v>1.076138371275554</v>
       </c>
       <c r="N5">
-        <v>1.031004573181371</v>
+        <v>1.073877615690143</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035167914055624</v>
+        <v>1.068830267031319</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038484441739408</v>
+        <v>1.062671557996478</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011174354167958</v>
+        <v>1.054882741286128</v>
       </c>
       <c r="D6">
-        <v>1.029443916600213</v>
+        <v>1.063943814967452</v>
       </c>
       <c r="E6">
-        <v>1.013776903854914</v>
+        <v>1.06099539869277</v>
       </c>
       <c r="F6">
-        <v>1.024203495954631</v>
+        <v>1.067149571113878</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050474980873582</v>
+        <v>1.072918900638818</v>
       </c>
       <c r="J6">
-        <v>1.029773736564012</v>
+        <v>1.072489249142332</v>
       </c>
       <c r="K6">
-        <v>1.038947209148999</v>
+        <v>1.073085686610686</v>
       </c>
       <c r="L6">
-        <v>1.023454325624266</v>
+        <v>1.070167039173254</v>
       </c>
       <c r="M6">
-        <v>1.03376430367949</v>
+        <v>1.076259302604647</v>
       </c>
       <c r="N6">
-        <v>1.031236133386631</v>
+        <v>1.07401230689235</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035294552937738</v>
+        <v>1.068925972488354</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038623484279727</v>
+        <v>1.062761292965713</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009157878763059</v>
+        <v>1.053508789881675</v>
       </c>
       <c r="D7">
-        <v>1.028031265494133</v>
+        <v>1.062976319647657</v>
       </c>
       <c r="E7">
-        <v>1.012029831323299</v>
+        <v>1.059890482221735</v>
       </c>
       <c r="F7">
-        <v>1.02289738356868</v>
+        <v>1.066129769183555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049919311533003</v>
+        <v>1.072459592032597</v>
       </c>
       <c r="J7">
-        <v>1.028324184982368</v>
+        <v>1.071630537322611</v>
       </c>
       <c r="K7">
-        <v>1.03779985939827</v>
+        <v>1.072366982877545</v>
       </c>
       <c r="L7">
-        <v>1.021982249600057</v>
+        <v>1.069313292668953</v>
       </c>
       <c r="M7">
-        <v>1.032724182413771</v>
+        <v>1.075487815376573</v>
       </c>
       <c r="N7">
-        <v>1.029784523275475</v>
+        <v>1.07315237560335</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034471360212696</v>
+        <v>1.068315414726781</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037816422571041</v>
+        <v>1.062257215224347</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000422998057984</v>
+        <v>1.047633881606964</v>
       </c>
       <c r="D8">
-        <v>1.021909238034081</v>
+        <v>1.058838888264442</v>
       </c>
       <c r="E8">
-        <v>1.004444794149336</v>
+        <v>1.055170378124567</v>
       </c>
       <c r="F8">
-        <v>1.017282794957548</v>
+        <v>1.061778977190522</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047470227810799</v>
+        <v>1.070469164783508</v>
       </c>
       <c r="J8">
-        <v>1.02201893715299</v>
+        <v>1.067945113517824</v>
       </c>
       <c r="K8">
-        <v>1.032800392690885</v>
+        <v>1.069276742080685</v>
       </c>
       <c r="L8">
-        <v>1.015564892615663</v>
+        <v>1.065651502669098</v>
       </c>
       <c r="M8">
-        <v>1.028233640150378</v>
+        <v>1.072182419110515</v>
       </c>
       <c r="N8">
-        <v>1.023470321270958</v>
+        <v>1.069461718074036</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030917358042473</v>
+        <v>1.065699506945408</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034285978964664</v>
+        <v>1.060076730887394</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9838299771539655</v>
+        <v>1.036790460712598</v>
       </c>
       <c r="D9">
-        <v>1.010291247722007</v>
+        <v>1.051218785274119</v>
       </c>
       <c r="E9">
-        <v>0.9900072044196302</v>
+        <v>1.046488501783332</v>
       </c>
       <c r="F9">
-        <v>1.006776813612212</v>
+        <v>1.053795702242703</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042674631510305</v>
+        <v>1.066709947494135</v>
       </c>
       <c r="J9">
-        <v>1.009966952910881</v>
+        <v>1.061107748065379</v>
       </c>
       <c r="K9">
-        <v>1.023219534411108</v>
+        <v>1.06353214724621</v>
       </c>
       <c r="L9">
-        <v>1.003264515415472</v>
+        <v>1.058869819045394</v>
       </c>
       <c r="M9">
-        <v>1.019760890331666</v>
+        <v>1.066072368874124</v>
       </c>
       <c r="N9">
-        <v>1.011401221828844</v>
+        <v>1.062614642778392</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024211621336735</v>
+        <v>1.06086395854507</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027508309629069</v>
+        <v>1.056012027672705</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.972318172295267</v>
+        <v>1.029352113766735</v>
       </c>
       <c r="D10">
-        <v>1.002263909463433</v>
+        <v>1.046043149064363</v>
       </c>
       <c r="E10">
-        <v>0.9801160008376619</v>
+        <v>1.040608522746721</v>
       </c>
       <c r="F10">
-        <v>0.9997968719731504</v>
+        <v>1.04841992904458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039296535362348</v>
+        <v>1.064115717639762</v>
       </c>
       <c r="J10">
-        <v>1.00167482111987</v>
+        <v>1.05644769548892</v>
       </c>
       <c r="K10">
-        <v>1.016592408280079</v>
+        <v>1.05962803120998</v>
       </c>
       <c r="L10">
-        <v>0.9948537937777649</v>
+        <v>1.05428134469068</v>
       </c>
       <c r="M10">
-        <v>1.014169794928025</v>
+        <v>1.061966718952706</v>
       </c>
       <c r="N10">
-        <v>1.003097314259568</v>
+        <v>1.057947972392759</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019839155359093</v>
+        <v>1.057664961682481</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022839413356037</v>
+        <v>1.053268096104923</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9705277986284085</v>
+        <v>1.027052481588414</v>
       </c>
       <c r="D11">
-        <v>1.001092198471612</v>
+        <v>1.044673575784834</v>
       </c>
       <c r="E11">
-        <v>0.9795222450953965</v>
+        <v>1.039165282810072</v>
       </c>
       <c r="F11">
-        <v>1.000389092270709</v>
+        <v>1.047265355235493</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038989145004961</v>
+        <v>1.063549431402116</v>
       </c>
       <c r="J11">
-        <v>1.001180217054233</v>
+        <v>1.055341597946863</v>
       </c>
       <c r="K11">
-        <v>1.015993546880683</v>
+        <v>1.058799479259096</v>
       </c>
       <c r="L11">
-        <v>0.9948409577526057</v>
+        <v>1.0533845570862</v>
       </c>
       <c r="M11">
-        <v>1.015303674609895</v>
+        <v>1.061347763506526</v>
       </c>
       <c r="N11">
-        <v>1.002602007799426</v>
+        <v>1.056840304065321</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021181608748391</v>
+        <v>1.057601928838831</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022449386757721</v>
+        <v>1.052714375596103</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.971002910046967</v>
+        <v>1.026550710357646</v>
       </c>
       <c r="D12">
-        <v>1.001470170822472</v>
+        <v>1.044488560659688</v>
       </c>
       <c r="E12">
-        <v>0.980619706701918</v>
+        <v>1.039044657705889</v>
       </c>
       <c r="F12">
-        <v>1.001846826566303</v>
+        <v>1.047274458311243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039284038361803</v>
+        <v>1.063548013359974</v>
       </c>
       <c r="J12">
-        <v>1.002087278051733</v>
+        <v>1.055272404355345</v>
       </c>
       <c r="K12">
-        <v>1.016569258777887</v>
+        <v>1.058810336048683</v>
       </c>
       <c r="L12">
-        <v>0.9961278658058315</v>
+        <v>1.053460197388199</v>
       </c>
       <c r="M12">
-        <v>1.016938729620793</v>
+        <v>1.061548736980042</v>
       </c>
       <c r="N12">
-        <v>1.003510356927584</v>
+        <v>1.056771012210966</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022806809282695</v>
+        <v>1.058080879390716</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022856446569387</v>
+        <v>1.052722051366064</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.973295008747144</v>
+        <v>1.027431492148964</v>
       </c>
       <c r="D13">
-        <v>1.003102440293322</v>
+        <v>1.045235285945126</v>
       </c>
       <c r="E13">
-        <v>0.9831452414563635</v>
+        <v>1.039966886602596</v>
       </c>
       <c r="F13">
-        <v>1.004103644712397</v>
+        <v>1.048214837880936</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040086511864439</v>
+        <v>1.064006013543511</v>
       </c>
       <c r="J13">
-        <v>1.004177273411232</v>
+        <v>1.056030075487298</v>
       </c>
       <c r="K13">
-        <v>1.018126607812662</v>
+        <v>1.05950299669656</v>
       </c>
       <c r="L13">
-        <v>0.9985574896464293</v>
+        <v>1.054324850457384</v>
       </c>
       <c r="M13">
-        <v>1.019108874184586</v>
+        <v>1.062432024038708</v>
       </c>
       <c r="N13">
-        <v>1.005603320320219</v>
+        <v>1.057529759322833</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02480313165926</v>
+        <v>1.059051099639202</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023955045109004</v>
+        <v>1.053209330160964</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756700848390266</v>
+        <v>1.028671800662917</v>
       </c>
       <c r="D14">
-        <v>1.00477784803516</v>
+        <v>1.046178593618781</v>
       </c>
       <c r="E14">
-        <v>0.9855059882995306</v>
+        <v>1.041081303591633</v>
       </c>
       <c r="F14">
-        <v>1.005998263165293</v>
+        <v>1.049292740431433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040860224804682</v>
+        <v>1.064533345475574</v>
       </c>
       <c r="J14">
-        <v>1.006128409904641</v>
+        <v>1.056932621353696</v>
       </c>
       <c r="K14">
-        <v>1.019627071527976</v>
+        <v>1.060295103876019</v>
       </c>
       <c r="L14">
-        <v>1.00072385186049</v>
+        <v>1.055283964132281</v>
       </c>
       <c r="M14">
-        <v>1.020824762322152</v>
+        <v>1.063357148493455</v>
       </c>
       <c r="N14">
-        <v>1.007557227651247</v>
+        <v>1.058433586907884</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026334701447065</v>
+        <v>1.059953052947579</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025017397503929</v>
+        <v>1.053770741711491</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9766890399037614</v>
+        <v>1.029287159289845</v>
       </c>
       <c r="D15">
-        <v>1.005493490962952</v>
+        <v>1.04662489140744</v>
       </c>
       <c r="E15">
-        <v>0.9864437308592338</v>
+        <v>1.0415954097062</v>
       </c>
       <c r="F15">
-        <v>1.006697998603396</v>
+        <v>1.049776202457404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041176804988454</v>
+        <v>1.064770639467941</v>
       </c>
       <c r="J15">
-        <v>1.006907618658961</v>
+        <v>1.057346311431839</v>
       </c>
       <c r="K15">
-        <v>1.020241190380482</v>
+        <v>1.060650672997234</v>
       </c>
       <c r="L15">
-        <v>1.001552530203547</v>
+        <v>1.055705519213493</v>
       </c>
       <c r="M15">
-        <v>1.02142346443611</v>
+        <v>1.063749676838733</v>
       </c>
       <c r="N15">
-        <v>1.008337542971374</v>
+        <v>1.05884786447339</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02684579976786</v>
+        <v>1.060300318504983</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025457561006672</v>
+        <v>1.054027857147612</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810237937640245</v>
+        <v>1.03227244045095</v>
       </c>
       <c r="D16">
-        <v>1.008510847687537</v>
+        <v>1.048679426047995</v>
       </c>
       <c r="E16">
-        <v>0.9900205441728958</v>
+        <v>1.043910933956574</v>
       </c>
       <c r="F16">
-        <v>1.009205213021962</v>
+        <v>1.051895074998001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042436497964476</v>
+        <v>1.065799779981345</v>
       </c>
       <c r="J16">
-        <v>1.009931801319519</v>
+        <v>1.059188776848307</v>
       </c>
       <c r="K16">
-        <v>1.022691886422416</v>
+        <v>1.062187806475733</v>
       </c>
       <c r="L16">
-        <v>1.004535133840102</v>
+        <v>1.057495691989379</v>
       </c>
       <c r="M16">
-        <v>1.023374034552505</v>
+        <v>1.065352450468517</v>
       </c>
       <c r="N16">
-        <v>1.01136602031819</v>
+        <v>1.060692946402083</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028348437766934</v>
+        <v>1.061529024971338</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027193523185896</v>
+        <v>1.055117698901099</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9831433025220521</v>
+        <v>1.033915863419466</v>
       </c>
       <c r="D17">
-        <v>1.009975796202421</v>
+        <v>1.049764359919142</v>
       </c>
       <c r="E17">
-        <v>0.9915735396652389</v>
+        <v>1.045107430630757</v>
       </c>
       <c r="F17">
-        <v>1.01015738091686</v>
+        <v>1.052954997791411</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043007774849729</v>
+        <v>1.066311663190182</v>
       </c>
       <c r="J17">
-        <v>1.011265033981812</v>
+        <v>1.060130325354925</v>
       </c>
       <c r="K17">
-        <v>1.023811145572111</v>
+        <v>1.062952689278709</v>
       </c>
       <c r="L17">
-        <v>1.00573094619524</v>
+        <v>1.058368232401947</v>
       </c>
       <c r="M17">
-        <v>1.023989627906372</v>
+        <v>1.066094145834624</v>
       </c>
       <c r="N17">
-        <v>1.012701146323787</v>
+        <v>1.061635832015576</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028704746626985</v>
+        <v>1.061988310036678</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027987507225219</v>
+        <v>1.055660994285675</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017480067445</v>
+        <v>1.034522958705607</v>
       </c>
       <c r="D18">
-        <v>1.01012523344355</v>
+        <v>1.050074443395651</v>
       </c>
       <c r="E18">
-        <v>0.9913466192668645</v>
+        <v>1.045402149998142</v>
       </c>
       <c r="F18">
-        <v>1.009640145389163</v>
+        <v>1.053145069075646</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042983199082719</v>
+        <v>1.066401039866824</v>
       </c>
       <c r="J18">
-        <v>1.011106822759706</v>
+        <v>1.060342311107658</v>
       </c>
       <c r="K18">
-        <v>1.023771451365815</v>
+        <v>1.063081395725665</v>
       </c>
       <c r="L18">
-        <v>1.005316412022429</v>
+        <v>1.058480647064906</v>
       </c>
       <c r="M18">
-        <v>1.023294526548452</v>
+        <v>1.066105442653516</v>
       </c>
       <c r="N18">
-        <v>1.012542710423599</v>
+        <v>1.061848118812394</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914880964076</v>
+        <v>1.061763849186587</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027947675655586</v>
+        <v>1.055740648437357</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981940469624128</v>
+        <v>1.034222778365169</v>
       </c>
       <c r="D19">
-        <v>1.009065968647237</v>
+        <v>1.04971593773244</v>
       </c>
       <c r="E19">
-        <v>0.9894995744642795</v>
+        <v>1.044913049246658</v>
       </c>
       <c r="F19">
-        <v>1.007676678029154</v>
+        <v>1.052573131752732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042412717118881</v>
+        <v>1.06613012827732</v>
       </c>
       <c r="J19">
-        <v>1.009564812533685</v>
+        <v>1.05992499752603</v>
       </c>
       <c r="K19">
-        <v>1.022666311329779</v>
+        <v>1.062668106517502</v>
       </c>
       <c r="L19">
-        <v>1.003436522840021</v>
+        <v>1.057938448550095</v>
       </c>
       <c r="M19">
-        <v>1.021300365010518</v>
+        <v>1.065482140057126</v>
       </c>
       <c r="N19">
-        <v>1.010998510366185</v>
+        <v>1.061430212597614</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.02600796948476</v>
+        <v>1.060952150466395</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027172763870868</v>
+        <v>1.055454688486217</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9755030342653205</v>
+        <v>1.031349003659243</v>
       </c>
       <c r="D20">
-        <v>1.004498249179649</v>
+        <v>1.047452983326536</v>
       </c>
       <c r="E20">
-        <v>0.9829224150741084</v>
+        <v>1.04220463470179</v>
       </c>
       <c r="F20">
-        <v>1.001703062901288</v>
+        <v>1.049873675436575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040254977949104</v>
+        <v>1.06483491500479</v>
       </c>
       <c r="J20">
-        <v>1.004012063854953</v>
+        <v>1.057722757933972</v>
       </c>
       <c r="K20">
-        <v>1.018462460782617</v>
+        <v>1.060709772458879</v>
       </c>
       <c r="L20">
-        <v>0.9972723505243904</v>
+        <v>1.055543854583196</v>
       </c>
       <c r="M20">
-        <v>1.015716031959096</v>
+        <v>1.063092799931871</v>
       </c>
       <c r="N20">
-        <v>1.005437876147421</v>
+        <v>1.059224845572734</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021052077128908</v>
+        <v>1.058545805299103</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024204425267942</v>
+        <v>1.054073972042094</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9660322925268653</v>
+        <v>1.025555964244682</v>
       </c>
       <c r="D21">
-        <v>0.9978884357112578</v>
+        <v>1.043385110730228</v>
       </c>
       <c r="E21">
-        <v>0.9746074984499109</v>
+        <v>1.03756525878302</v>
       </c>
       <c r="F21">
-        <v>0.9956723945727689</v>
+        <v>1.045603697851339</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037400751528685</v>
+        <v>1.062749366097294</v>
       </c>
       <c r="J21">
-        <v>0.9970221897044727</v>
+        <v>1.054022740655449</v>
       </c>
       <c r="K21">
-        <v>1.012909923056339</v>
+        <v>1.057588656664748</v>
       </c>
       <c r="L21">
-        <v>0.9900864551886294</v>
+        <v>1.051868260998895</v>
       </c>
       <c r="M21">
-        <v>1.010736221228123</v>
+        <v>1.059769706046281</v>
       </c>
       <c r="N21">
-        <v>0.9984380755738967</v>
+        <v>1.055519573845278</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017068996591379</v>
+        <v>1.055875943223644</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020281785252614</v>
+        <v>1.05187049176443</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599724758478506</v>
+        <v>1.021864982012804</v>
       </c>
       <c r="D22">
-        <v>0.9936660442728846</v>
+        <v>1.040803914875899</v>
       </c>
       <c r="E22">
-        <v>0.9693143804275064</v>
+        <v>1.034630837005142</v>
       </c>
       <c r="F22">
-        <v>0.9919599863038132</v>
+        <v>1.042918905081907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03556542043094</v>
+        <v>1.061418534581597</v>
       </c>
       <c r="J22">
-        <v>0.9925758973997013</v>
+        <v>1.051674620275816</v>
       </c>
       <c r="K22">
-        <v>1.009364031069235</v>
+        <v>1.055608176520574</v>
       </c>
       <c r="L22">
-        <v>0.9855192599423426</v>
+        <v>1.049546112248175</v>
       </c>
       <c r="M22">
-        <v>1.00769241792275</v>
+        <v>1.057685523981951</v>
       </c>
       <c r="N22">
-        <v>0.9939854690240557</v>
+        <v>1.053168118865373</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.014659944167828</v>
+        <v>1.054226485295392</v>
       </c>
       <c r="Q22">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R22">
-        <v>1.017760831068086</v>
+        <v>1.050457066321594</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9631470756200529</v>
+        <v>1.023805926821069</v>
       </c>
       <c r="D23">
-        <v>0.9958718579157801</v>
+        <v>1.042153114494672</v>
       </c>
       <c r="E23">
-        <v>0.9720614375993994</v>
+        <v>1.036166477088587</v>
       </c>
       <c r="F23">
-        <v>0.9939130675127756</v>
+        <v>1.044326047381803</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036522593768621</v>
+        <v>1.062112831154038</v>
       </c>
       <c r="J23">
-        <v>0.9948920919012862</v>
+        <v>1.052901871346696</v>
       </c>
       <c r="K23">
-        <v>1.011210820940264</v>
+        <v>1.056638764024117</v>
       </c>
       <c r="L23">
-        <v>0.9878812614800254</v>
+        <v>1.050756940178709</v>
       </c>
       <c r="M23">
-        <v>1.009290447419173</v>
+        <v>1.058774037890712</v>
       </c>
       <c r="N23">
-        <v>0.9963049527875041</v>
+        <v>1.054397112773542</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.015924723719002</v>
+        <v>1.055087954578068</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019056795469415</v>
+        <v>1.051176279239665</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9752437610463742</v>
+        <v>1.031313022757191</v>
       </c>
       <c r="D24">
-        <v>1.00430233368467</v>
+        <v>1.047395356900463</v>
       </c>
       <c r="E24">
-        <v>0.9825771743111151</v>
+        <v>1.04213182608237</v>
       </c>
       <c r="F24">
-        <v>1.001393753205033</v>
+        <v>1.049793496607216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040147545907646</v>
+        <v>1.064789430115547</v>
       </c>
       <c r="J24">
-        <v>1.003729251431279</v>
+        <v>1.057656793616597</v>
       </c>
       <c r="K24">
-        <v>1.018254314441634</v>
+        <v>1.060638317223737</v>
       </c>
       <c r="L24">
-        <v>0.9969173222465472</v>
+        <v>1.055457363572539</v>
       </c>
       <c r="M24">
-        <v>1.015396437104479</v>
+        <v>1.0629991843832</v>
       </c>
       <c r="N24">
-        <v>1.005154662097665</v>
+        <v>1.059158787578462</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020757359972507</v>
+        <v>1.058431801492514</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024029410392794</v>
+        <v>1.053996700072293</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9883551633266556</v>
+        <v>1.039688852595608</v>
       </c>
       <c r="D25">
-        <v>1.013465881755529</v>
+        <v>1.05326456116137</v>
       </c>
       <c r="E25">
-        <v>0.9939805336729691</v>
+        <v>1.048814422510716</v>
       </c>
       <c r="F25">
-        <v>1.009606546978452</v>
+        <v>1.055928992493665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044007937314003</v>
+        <v>1.067734307628787</v>
       </c>
       <c r="J25">
-        <v>1.013280879880571</v>
+        <v>1.062950571054553</v>
       </c>
       <c r="K25">
-        <v>1.025858692800032</v>
+        <v>1.065088684755474</v>
       </c>
       <c r="L25">
-        <v>1.006673018389107</v>
+        <v>1.060699433293505</v>
       </c>
       <c r="M25">
-        <v>1.022057541857141</v>
+        <v>1.06771697004333</v>
       </c>
       <c r="N25">
-        <v>1.014719854954943</v>
+        <v>1.064460082787585</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026029306932358</v>
+        <v>1.062165513561991</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029403318442948</v>
+        <v>1.057140393811272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_0/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046061466433522</v>
+        <v>1.035233848704971</v>
       </c>
       <c r="D2">
-        <v>1.057722969589582</v>
+        <v>1.048313344358858</v>
       </c>
       <c r="E2">
-        <v>1.053901660888435</v>
+        <v>1.045134475779769</v>
       </c>
       <c r="F2">
-        <v>1.060613285308421</v>
+        <v>1.052622450710112</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.069922123011815</v>
+        <v>1.063647379218803</v>
       </c>
       <c r="J2">
-        <v>1.066946657052161</v>
+        <v>1.05640947294196</v>
       </c>
       <c r="K2">
-        <v>1.068432704519461</v>
+        <v>1.059138259484981</v>
       </c>
       <c r="L2">
-        <v>1.064657862878634</v>
+        <v>1.055998886341335</v>
       </c>
       <c r="M2">
-        <v>1.071288150073603</v>
+        <v>1.063394301605999</v>
       </c>
       <c r="N2">
-        <v>1.068461843685667</v>
+        <v>1.041224363275248</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.064991776295349</v>
+        <v>1.058744502686644</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.059457688397644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.052894576047556</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027201831402586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050593967277804</v>
+        <v>1.039135218802092</v>
       </c>
       <c r="D3">
-        <v>1.060913298474779</v>
+        <v>1.050937299025688</v>
       </c>
       <c r="E3">
-        <v>1.057540106700926</v>
+        <v>1.048203424383526</v>
       </c>
       <c r="F3">
-        <v>1.063964652739721</v>
+        <v>1.055483236897002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.071468060496279</v>
+        <v>1.064809433684189</v>
       </c>
       <c r="J3">
-        <v>1.06979436887197</v>
+        <v>1.058613036118591</v>
       </c>
       <c r="K3">
-        <v>1.070821880188319</v>
+        <v>1.060957412021318</v>
       </c>
       <c r="L3">
-        <v>1.067486110860993</v>
+        <v>1.058254558980975</v>
       </c>
       <c r="M3">
-        <v>1.073839633603171</v>
+        <v>1.065452204625163</v>
       </c>
       <c r="N3">
-        <v>1.071313599582898</v>
+        <v>1.042459710430703</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.067011036185607</v>
+        <v>1.060373153335642</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.06114436286152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.054177940319448</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027632105451598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05347035419073</v>
+        <v>1.041615387456775</v>
       </c>
       <c r="D4">
-        <v>1.062941336507201</v>
+        <v>1.052608846976545</v>
       </c>
       <c r="E4">
-        <v>1.059853875995581</v>
+        <v>1.05015976104318</v>
       </c>
       <c r="F4">
-        <v>1.066097843785382</v>
+        <v>1.057308230712563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.072439613864559</v>
+        <v>1.065538881010333</v>
       </c>
       <c r="J4">
-        <v>1.071598583422289</v>
+        <v>1.060011317412564</v>
       </c>
       <c r="K4">
-        <v>1.072335129444036</v>
+        <v>1.062111231785141</v>
       </c>
       <c r="L4">
-        <v>1.069279846349396</v>
+        <v>1.059688268741421</v>
       </c>
       <c r="M4">
-        <v>1.075458974760863</v>
+        <v>1.066760904486463</v>
       </c>
       <c r="N4">
-        <v>1.073120376324824</v>
+        <v>1.043243599935685</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.068292590150913</v>
+        <v>1.061408873283977</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.062215171820277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.054994714083505</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027902608839649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.054673287284014</v>
+        <v>1.042652633106252</v>
       </c>
       <c r="D5">
-        <v>1.063792647939045</v>
+        <v>1.053311056982913</v>
       </c>
       <c r="E5">
-        <v>1.060824312097037</v>
+        <v>1.050980459208565</v>
       </c>
       <c r="F5">
-        <v>1.066992476014452</v>
+        <v>1.058073887187328</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.072845733293243</v>
+        <v>1.065843607796363</v>
       </c>
       <c r="J5">
-        <v>1.072354748945831</v>
+        <v>1.060597475537018</v>
       </c>
       <c r="K5">
-        <v>1.072970771812753</v>
+        <v>1.062596424102906</v>
       </c>
       <c r="L5">
-        <v>1.070032544712287</v>
+        <v>1.060290026924109</v>
       </c>
       <c r="M5">
-        <v>1.076138371275554</v>
+        <v>1.067310201980606</v>
       </c>
       <c r="N5">
-        <v>1.073877615690143</v>
+        <v>1.043572204301427</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.068830267031319</v>
+        <v>1.061843593154028</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.062671557996478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.055345486019926</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028017210671144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054882741286128</v>
+        <v>1.042832126068454</v>
       </c>
       <c r="D6">
-        <v>1.063943814967452</v>
+        <v>1.053435464669198</v>
       </c>
       <c r="E6">
-        <v>1.06099539869277</v>
+        <v>1.051124096856764</v>
       </c>
       <c r="F6">
-        <v>1.067149571113878</v>
+        <v>1.058207588689818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.072918900638818</v>
+        <v>1.065898549801678</v>
       </c>
       <c r="J6">
-        <v>1.072489249142332</v>
+        <v>1.060701319525265</v>
       </c>
       <c r="K6">
-        <v>1.073085686610686</v>
+        <v>1.062684362909697</v>
       </c>
       <c r="L6">
-        <v>1.070167039173254</v>
+        <v>1.060396886510662</v>
       </c>
       <c r="M6">
-        <v>1.076259302604647</v>
+        <v>1.067407562300152</v>
       </c>
       <c r="N6">
-        <v>1.07401230689235</v>
+        <v>1.04363041988938</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.068925972488354</v>
+        <v>1.061920645119479</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.062761292965713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.055417072670122</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028039689161332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053508789881675</v>
+        <v>1.041677453781241</v>
       </c>
       <c r="D7">
-        <v>1.062976319647657</v>
+        <v>1.052662673353573</v>
       </c>
       <c r="E7">
-        <v>1.059890482221735</v>
+        <v>1.050219334429612</v>
       </c>
       <c r="F7">
-        <v>1.066129769183555</v>
+        <v>1.057358343200854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.072459592032597</v>
+        <v>1.065571990028987</v>
       </c>
       <c r="J7">
-        <v>1.071630537322611</v>
+        <v>1.060066237629059</v>
       </c>
       <c r="K7">
-        <v>1.072366982877545</v>
+        <v>1.062161683402907</v>
       </c>
       <c r="L7">
-        <v>1.069313292668953</v>
+        <v>1.059744393987374</v>
       </c>
       <c r="M7">
-        <v>1.075487815376573</v>
+        <v>1.066807703940291</v>
       </c>
       <c r="N7">
-        <v>1.07315237560335</v>
+        <v>1.043325212493259</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.068315414726781</v>
+        <v>1.061445910878188</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.062257215224347</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.055052031203229</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02792654064579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047633881606964</v>
+        <v>1.036683772177297</v>
       </c>
       <c r="D8">
-        <v>1.058838888264442</v>
+        <v>1.049311455487259</v>
       </c>
       <c r="E8">
-        <v>1.055170378124567</v>
+        <v>1.046300398268611</v>
       </c>
       <c r="F8">
-        <v>1.061778977190522</v>
+        <v>1.053693173207779</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.070469164783508</v>
+        <v>1.064115721222634</v>
       </c>
       <c r="J8">
-        <v>1.067945113517824</v>
+        <v>1.057278850527702</v>
       </c>
       <c r="K8">
-        <v>1.069276742080685</v>
+        <v>1.059862465491206</v>
       </c>
       <c r="L8">
-        <v>1.065651502669098</v>
+        <v>1.056887702331079</v>
       </c>
       <c r="M8">
-        <v>1.072182419110515</v>
+        <v>1.064191827095435</v>
       </c>
       <c r="N8">
-        <v>1.069461718074036</v>
+        <v>1.041865942927233</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.065699506945408</v>
+        <v>1.059375674920289</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.060076730887394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053431296888544</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027403431441968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036790460712598</v>
+        <v>1.027403493806069</v>
       </c>
       <c r="D9">
-        <v>1.051218785274119</v>
+        <v>1.043085884218973</v>
       </c>
       <c r="E9">
-        <v>1.046488501783332</v>
+        <v>1.0390329085968</v>
       </c>
       <c r="F9">
-        <v>1.053795702242703</v>
+        <v>1.046924062204443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.066709947494135</v>
+        <v>1.061298655605938</v>
       </c>
       <c r="J9">
-        <v>1.061107748065379</v>
+        <v>1.052024339221656</v>
       </c>
       <c r="K9">
-        <v>1.06353214724621</v>
+        <v>1.055516566906561</v>
       </c>
       <c r="L9">
-        <v>1.058869819045394</v>
+        <v>1.051522927896868</v>
       </c>
       <c r="M9">
-        <v>1.066072368874124</v>
+        <v>1.059299089678941</v>
       </c>
       <c r="N9">
-        <v>1.062614642778392</v>
+        <v>1.038939053224194</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.06086395854507</v>
+        <v>1.055503489559687</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.056012027672705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.050355190618715</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026362798083117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029352113766735</v>
+        <v>1.021202613918789</v>
       </c>
       <c r="D10">
-        <v>1.046043149064363</v>
+        <v>1.038997061092317</v>
       </c>
       <c r="E10">
-        <v>1.040608522746721</v>
+        <v>1.034280400068507</v>
       </c>
       <c r="F10">
-        <v>1.04841992904458</v>
+        <v>1.042507599264247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.064115717639762</v>
+        <v>1.05943708752861</v>
       </c>
       <c r="J10">
-        <v>1.05644769548892</v>
+        <v>1.048599547199887</v>
       </c>
       <c r="K10">
-        <v>1.05962803120998</v>
+        <v>1.052696186019182</v>
       </c>
       <c r="L10">
-        <v>1.05428134469068</v>
+        <v>1.04805711866621</v>
       </c>
       <c r="M10">
-        <v>1.061966718952706</v>
+        <v>1.05614955768909</v>
       </c>
       <c r="N10">
-        <v>1.057947972392759</v>
+        <v>1.037246857389863</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.057664961682481</v>
+        <v>1.053061436571864</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.053268096104923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.048379236224785</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025734480324235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027052481588414</v>
+        <v>1.019342810324124</v>
       </c>
       <c r="D11">
-        <v>1.044673575784834</v>
+        <v>1.038004657095574</v>
       </c>
       <c r="E11">
-        <v>1.039165282810072</v>
+        <v>1.033201236752168</v>
       </c>
       <c r="F11">
-        <v>1.047265355235493</v>
+        <v>1.041681399232328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.063549431402116</v>
+        <v>1.059129016133711</v>
       </c>
       <c r="J11">
-        <v>1.055341597946863</v>
+        <v>1.047932471835965</v>
       </c>
       <c r="K11">
-        <v>1.058799479259096</v>
+        <v>1.05224376840216</v>
       </c>
       <c r="L11">
-        <v>1.0533845570862</v>
+        <v>1.047523059711679</v>
       </c>
       <c r="M11">
-        <v>1.061347763506526</v>
+        <v>1.055857864808643</v>
       </c>
       <c r="N11">
-        <v>1.056840304065321</v>
+        <v>1.037307848351285</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.057601928838831</v>
+        <v>1.053259490180734</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.052714375596103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.048094797000535</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025850040959212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026550710357646</v>
+        <v>1.018874412441602</v>
       </c>
       <c r="D12">
-        <v>1.044488560659688</v>
+        <v>1.037845287075983</v>
       </c>
       <c r="E12">
-        <v>1.039044657705889</v>
+        <v>1.033070806969145</v>
       </c>
       <c r="F12">
-        <v>1.047274458311243</v>
+        <v>1.04170323230099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.063548013359974</v>
+        <v>1.059148314856469</v>
       </c>
       <c r="J12">
-        <v>1.055272404355345</v>
+        <v>1.047900910277501</v>
       </c>
       <c r="K12">
-        <v>1.058810336048683</v>
+        <v>1.052281655560735</v>
       </c>
       <c r="L12">
-        <v>1.053460197388199</v>
+        <v>1.04759071271816</v>
       </c>
       <c r="M12">
-        <v>1.061548736980042</v>
+        <v>1.056072823103447</v>
       </c>
       <c r="N12">
-        <v>1.056771012210966</v>
+        <v>1.037479242848024</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.058080879390716</v>
+        <v>1.053750917398686</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.052722051366064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.048121583041551</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025991483688083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027431492148964</v>
+        <v>1.019451483664093</v>
       </c>
       <c r="D13">
-        <v>1.045235285945126</v>
+        <v>1.038329334986318</v>
       </c>
       <c r="E13">
-        <v>1.039966886602596</v>
+        <v>1.033671136183286</v>
       </c>
       <c r="F13">
-        <v>1.048214837880936</v>
+        <v>1.042395540052256</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.064006013543511</v>
+        <v>1.059431837499196</v>
       </c>
       <c r="J13">
-        <v>1.056030075487298</v>
+        <v>1.048365142901863</v>
       </c>
       <c r="K13">
-        <v>1.05950299669656</v>
+        <v>1.052715593187479</v>
       </c>
       <c r="L13">
-        <v>1.054324850457384</v>
+        <v>1.048138515919352</v>
       </c>
       <c r="M13">
-        <v>1.062432024038708</v>
+        <v>1.05671175209667</v>
       </c>
       <c r="N13">
-        <v>1.057529759322833</v>
+        <v>1.037697560635199</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.059051099639202</v>
+        <v>1.054529018728312</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.053209330160964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.048425688418119</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026172461019624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028671800662917</v>
+        <v>1.020339383308918</v>
       </c>
       <c r="D14">
-        <v>1.046178593618781</v>
+        <v>1.038970180036107</v>
       </c>
       <c r="E14">
-        <v>1.041081303591633</v>
+        <v>1.034434384900886</v>
       </c>
       <c r="F14">
-        <v>1.049292740431433</v>
+        <v>1.043193379607314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.064533345475574</v>
+        <v>1.0597562119468</v>
       </c>
       <c r="J14">
-        <v>1.056932621353696</v>
+        <v>1.048924315866627</v>
       </c>
       <c r="K14">
-        <v>1.060295103876019</v>
+        <v>1.053208840908311</v>
       </c>
       <c r="L14">
-        <v>1.055283964132281</v>
+        <v>1.048751036216226</v>
       </c>
       <c r="M14">
-        <v>1.063357148493455</v>
+        <v>1.057360211728091</v>
       </c>
       <c r="N14">
-        <v>1.058433586907884</v>
+        <v>1.037878301090642</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.059953052947579</v>
+        <v>1.055212882700984</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.053770741711491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.048775947575131</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026324261219103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029287159289845</v>
+        <v>1.020798800497039</v>
       </c>
       <c r="D15">
-        <v>1.04662489140744</v>
+        <v>1.039283379941432</v>
       </c>
       <c r="E15">
-        <v>1.0415954097062</v>
+        <v>1.034799400602414</v>
       </c>
       <c r="F15">
-        <v>1.049776202457404</v>
+        <v>1.043555164132954</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.064770639467941</v>
+        <v>1.059903579425059</v>
       </c>
       <c r="J15">
-        <v>1.057346311431839</v>
+        <v>1.049185195092164</v>
       </c>
       <c r="K15">
-        <v>1.060650672997234</v>
+        <v>1.053432608080697</v>
       </c>
       <c r="L15">
-        <v>1.055705519213493</v>
+        <v>1.049025139885938</v>
       </c>
       <c r="M15">
-        <v>1.063749676838733</v>
+        <v>1.057632290366797</v>
       </c>
       <c r="N15">
-        <v>1.05884786447339</v>
+        <v>1.037946061865731</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.060300318504983</v>
+        <v>1.055465065535487</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.054027857147612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.048940475492331</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02637962891924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03227244045095</v>
+        <v>1.023136216745687</v>
       </c>
       <c r="D16">
-        <v>1.048679426047995</v>
+        <v>1.040785896998078</v>
       </c>
       <c r="E16">
-        <v>1.043910933956574</v>
+        <v>1.036528192746063</v>
       </c>
       <c r="F16">
-        <v>1.051895074998001</v>
+        <v>1.045179250117278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.065799779981345</v>
+        <v>1.060557048419395</v>
       </c>
       <c r="J16">
-        <v>1.059188776848307</v>
+        <v>1.050387089853815</v>
       </c>
       <c r="K16">
-        <v>1.062187806475733</v>
+        <v>1.054421196715742</v>
       </c>
       <c r="L16">
-        <v>1.057495691989379</v>
+        <v>1.050232983589677</v>
       </c>
       <c r="M16">
-        <v>1.065352450468517</v>
+        <v>1.058743606088165</v>
       </c>
       <c r="N16">
-        <v>1.060692946402083</v>
+        <v>1.038224231830086</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.061529024971338</v>
+        <v>1.056305170530386</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.055117698901099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.049642817876662</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026552601907057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033915863419466</v>
+        <v>1.024487116235825</v>
       </c>
       <c r="D17">
-        <v>1.049764359919142</v>
+        <v>1.041619561390126</v>
       </c>
       <c r="E17">
-        <v>1.045107430630757</v>
+        <v>1.037474385816747</v>
       </c>
       <c r="F17">
-        <v>1.052954997791411</v>
+        <v>1.046019431545013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.066311663190182</v>
+        <v>1.060897110062173</v>
       </c>
       <c r="J17">
-        <v>1.060130325354925</v>
+        <v>1.051035758382773</v>
       </c>
       <c r="K17">
-        <v>1.062952689278709</v>
+        <v>1.054935185648855</v>
       </c>
       <c r="L17">
-        <v>1.058368232401947</v>
+        <v>1.050855778483806</v>
       </c>
       <c r="M17">
-        <v>1.066094145834624</v>
+        <v>1.059265975540501</v>
       </c>
       <c r="N17">
-        <v>1.061635832015576</v>
+        <v>1.038404312138169</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.061988310036678</v>
+        <v>1.05659056740951</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.055660994285675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.050008996531979</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026609908154753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034522958705607</v>
+        <v>1.025053426260425</v>
       </c>
       <c r="D18">
-        <v>1.050074443395651</v>
+        <v>1.041892795597879</v>
       </c>
       <c r="E18">
-        <v>1.045402149998142</v>
+        <v>1.037759602312501</v>
       </c>
       <c r="F18">
-        <v>1.053145069075646</v>
+        <v>1.046185464754553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.066401039866824</v>
+        <v>1.060959808769046</v>
       </c>
       <c r="J18">
-        <v>1.060342311107658</v>
+        <v>1.051202250307455</v>
       </c>
       <c r="K18">
-        <v>1.063081395725665</v>
+        <v>1.055025569008738</v>
       </c>
       <c r="L18">
-        <v>1.058480647064906</v>
+        <v>1.050956902696337</v>
       </c>
       <c r="M18">
-        <v>1.066105442653516</v>
+        <v>1.059251910369492</v>
       </c>
       <c r="N18">
-        <v>1.061848118812394</v>
+        <v>1.038417264894939</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.061763849186587</v>
+        <v>1.056344962270504</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.055740648437357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.050060363733691</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026540467607019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034222778365169</v>
+        <v>1.024908846860475</v>
       </c>
       <c r="D19">
-        <v>1.04971593773244</v>
+        <v>1.041666749603381</v>
       </c>
       <c r="E19">
-        <v>1.044913049246658</v>
+        <v>1.037447363819502</v>
       </c>
       <c r="F19">
-        <v>1.052573131752732</v>
+        <v>1.045742231792791</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.06613012827732</v>
+        <v>1.060776551302149</v>
       </c>
       <c r="J19">
-        <v>1.05992499752603</v>
+        <v>1.050933438357144</v>
       </c>
       <c r="K19">
-        <v>1.062668106517502</v>
+        <v>1.054742134256057</v>
       </c>
       <c r="L19">
-        <v>1.057938448550095</v>
+        <v>1.050588314803774</v>
       </c>
       <c r="M19">
-        <v>1.065482140057126</v>
+        <v>1.058754927116967</v>
       </c>
       <c r="N19">
-        <v>1.061430212597614</v>
+        <v>1.038243936582659</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.060952150466395</v>
+        <v>1.055631464495627</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.055454688486217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.049866867177054</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026363169297079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.031349003659243</v>
+        <v>1.022756222001023</v>
       </c>
       <c r="D20">
-        <v>1.047452983326536</v>
+        <v>1.040025155802804</v>
       </c>
       <c r="E20">
-        <v>1.04220463470179</v>
+        <v>1.035459520582215</v>
       </c>
       <c r="F20">
-        <v>1.049873675436575</v>
+        <v>1.043615377848339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.06483491500479</v>
+        <v>1.059898303902849</v>
       </c>
       <c r="J20">
-        <v>1.057722757933972</v>
+        <v>1.049437261481418</v>
       </c>
       <c r="K20">
-        <v>1.060709772458879</v>
+        <v>1.053398919856868</v>
       </c>
       <c r="L20">
-        <v>1.055543854583196</v>
+        <v>1.048906253444944</v>
       </c>
       <c r="M20">
-        <v>1.063092799931871</v>
+        <v>1.056932336270161</v>
       </c>
       <c r="N20">
-        <v>1.059224845572734</v>
+        <v>1.037525449850447</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.058545805299103</v>
+        <v>1.05367054578297</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.054073972042094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.048921442196386</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02588156010142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025555964244682</v>
+        <v>1.018439659740221</v>
       </c>
       <c r="D21">
-        <v>1.043385110730228</v>
+        <v>1.037225270595052</v>
       </c>
       <c r="E21">
-        <v>1.03756525878302</v>
+        <v>1.032225088937227</v>
       </c>
       <c r="F21">
-        <v>1.045603697851339</v>
+        <v>1.040501908975388</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.062749366097294</v>
+        <v>1.058668401825799</v>
       </c>
       <c r="J21">
-        <v>1.054022740655449</v>
+        <v>1.047186156939644</v>
       </c>
       <c r="K21">
-        <v>1.057588656664748</v>
+        <v>1.051534127535235</v>
       </c>
       <c r="L21">
-        <v>1.051868260998895</v>
+        <v>1.046620627727433</v>
       </c>
       <c r="M21">
-        <v>1.059769706046281</v>
+        <v>1.054754546706453</v>
       </c>
       <c r="N21">
-        <v>1.055519573845278</v>
+        <v>1.037057155393656</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.055875943223644</v>
+        <v>1.051906852829554</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.05187049176443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.047606509578737</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025556430415561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021864982012804</v>
+        <v>1.015671764034159</v>
       </c>
       <c r="D22">
-        <v>1.040803914875899</v>
+        <v>1.035440384503003</v>
       </c>
       <c r="E22">
-        <v>1.034630837005142</v>
+        <v>1.030173919065644</v>
       </c>
       <c r="F22">
-        <v>1.042918905081907</v>
+        <v>1.038543721532602</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.061418534581597</v>
+        <v>1.057872252989568</v>
       </c>
       <c r="J22">
-        <v>1.051674620275816</v>
+        <v>1.045739193148553</v>
       </c>
       <c r="K22">
-        <v>1.055608176520574</v>
+        <v>1.050341003180524</v>
       </c>
       <c r="L22">
-        <v>1.049546112248175</v>
+        <v>1.045170422420612</v>
       </c>
       <c r="M22">
-        <v>1.057685523981951</v>
+        <v>1.053388430426969</v>
       </c>
       <c r="N22">
-        <v>1.053168118865373</v>
+        <v>1.036710211002013</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.054226485295392</v>
+        <v>1.050825679371452</v>
       </c>
       <c r="Q22">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.050457066321594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046748395225006</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025353855148406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023805926821069</v>
+        <v>1.017079464736268</v>
       </c>
       <c r="D23">
-        <v>1.042153114494672</v>
+        <v>1.036330327528273</v>
       </c>
       <c r="E23">
-        <v>1.036166477088587</v>
+        <v>1.031195908808632</v>
       </c>
       <c r="F23">
-        <v>1.044326047381803</v>
+        <v>1.039530082785036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.062112831154038</v>
+        <v>1.058258225985643</v>
       </c>
       <c r="J23">
-        <v>1.052901871346696</v>
+        <v>1.046447106166688</v>
       </c>
       <c r="K23">
-        <v>1.056638764024117</v>
+        <v>1.050917901040472</v>
       </c>
       <c r="L23">
-        <v>1.050756940178709</v>
+        <v>1.045874596881686</v>
       </c>
       <c r="M23">
-        <v>1.058774037890712</v>
+        <v>1.054061463656612</v>
       </c>
       <c r="N23">
-        <v>1.054397112773542</v>
+        <v>1.036792379331621</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.055087954578068</v>
+        <v>1.051358332368441</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.051176279239665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04714587202933</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02542855619878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031313022757191</v>
+        <v>1.022743930991118</v>
       </c>
       <c r="D24">
-        <v>1.047395356900463</v>
+        <v>1.039987172587954</v>
       </c>
       <c r="E24">
-        <v>1.04213182608237</v>
+        <v>1.035414817983122</v>
       </c>
       <c r="F24">
-        <v>1.049793496607216</v>
+        <v>1.043555176726988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.064789430115547</v>
+        <v>1.059865904413294</v>
       </c>
       <c r="J24">
-        <v>1.057656793616597</v>
+        <v>1.049393732803326</v>
       </c>
       <c r="K24">
-        <v>1.060638317223737</v>
+        <v>1.053346663589585</v>
       </c>
       <c r="L24">
-        <v>1.055457363572539</v>
+        <v>1.048847299438047</v>
       </c>
       <c r="M24">
-        <v>1.0629991843832</v>
+        <v>1.056858278753691</v>
       </c>
       <c r="N24">
-        <v>1.059158787578462</v>
+        <v>1.037493284551093</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.058431801492514</v>
+        <v>1.053571788041917</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.053996700072293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.048854945730655</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025846059840485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039688852595608</v>
+        <v>1.029831199144743</v>
       </c>
       <c r="D25">
-        <v>1.05326456116137</v>
+        <v>1.044716996653383</v>
       </c>
       <c r="E25">
-        <v>1.048814422510716</v>
+        <v>1.040927017334215</v>
       </c>
       <c r="F25">
-        <v>1.055928992493665</v>
+        <v>1.0486912169547</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.067734307628787</v>
+        <v>1.06204285913376</v>
       </c>
       <c r="J25">
-        <v>1.062950571054553</v>
+        <v>1.053394705066224</v>
       </c>
       <c r="K25">
-        <v>1.065088684755474</v>
+        <v>1.056658647349314</v>
       </c>
       <c r="L25">
-        <v>1.060699433293505</v>
+        <v>1.05292155929199</v>
       </c>
       <c r="M25">
-        <v>1.06771697004333</v>
+        <v>1.060577922710219</v>
       </c>
       <c r="N25">
-        <v>1.064460082787585</v>
+        <v>1.039642795269287</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.062165513561991</v>
+        <v>1.056515578983869</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.057140393811272</v>
+        <v>1.051193481695005</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.026636574635199</v>
       </c>
     </row>
   </sheetData>
